--- a/6. Test/Linh tinh/sprint 3/AS_TE_TestCase_Sprint3.xlsx
+++ b/6. Test/Linh tinh/sprint 3/AS_TE_TestCase_Sprint3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="8280" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="8280" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Revision history" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="552">
   <si>
     <t>Expected results</t>
   </si>
@@ -2135,9 +2135,6 @@
   </si>
   <si>
     <t>TC.05.1</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -2757,14 +2754,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2784,17 +2784,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2802,119 +2799,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="80">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8FB75"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE4444"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8FB75"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE4444"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8FB75"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE4444"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8FB75"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE4444"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="64">
     <dxf>
       <fill>
         <patternFill>
@@ -3416,6 +3301,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3636,7 +3522,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3677,7 +3565,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3960,6 +3848,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5462,7 +5351,7 @@
   </sheetPr>
   <dimension ref="A4:D21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -5679,8 +5568,8 @@
   </sheetPr>
   <dimension ref="A2:J48"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -5697,84 +5586,84 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="97"/>
+      <c r="C2" s="88"/>
       <c r="D2" s="54">
         <f>COUNTIF(I11:I36,"&gt;a0")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97" t="s">
+      <c r="A3" s="87"/>
+      <c r="B3" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="97"/>
+      <c r="C3" s="88"/>
       <c r="D3" s="54">
         <f>SUM(D5:D6)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="63"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97" t="s">
+      <c r="A4" s="87"/>
+      <c r="B4" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="97"/>
+      <c r="C4" s="88"/>
       <c r="D4" s="54">
         <f>D2-D3</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="98" t="s">
+      <c r="A5" s="87"/>
+      <c r="B5" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="98"/>
+      <c r="C5" s="89"/>
       <c r="D5" s="54">
         <f>COUNTIF(H11:H36,"Passed")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="96"/>
-      <c r="B6" s="98" t="s">
+      <c r="A6" s="87"/>
+      <c r="B6" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="98"/>
+      <c r="C6" s="89"/>
       <c r="D6" s="54">
         <f>COUNTIF(H11:H36,"Failed")</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="96"/>
-      <c r="B7" s="98" t="s">
+      <c r="A7" s="87"/>
+      <c r="B7" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="98"/>
+      <c r="C7" s="89"/>
       <c r="D7" s="54">
         <f>COUNTIF(H11:H20,"Block")</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="96"/>
-      <c r="B8" s="99" t="s">
+      <c r="A8" s="87"/>
+      <c r="B8" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="99"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="55">
         <f>1-(D4/D2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="39" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -5819,7 +5708,7 @@
       <c r="I11" s="53"/>
       <c r="J11" s="53"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B12" s="48" t="s">
         <v>84</v>
       </c>
@@ -5834,34 +5723,16 @@
       <c r="I12" s="50"/>
       <c r="J12" s="51"/>
     </row>
-    <row r="13" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B13" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="H13" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="I13" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="J13" s="45" t="s">
-        <v>552</v>
-      </c>
+    <row r="13" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="61" t="s">
@@ -5876,7 +5747,7 @@
       <c r="I14" s="53"/>
       <c r="J14" s="53"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B15" s="48" t="s">
         <v>85</v>
       </c>
@@ -5891,34 +5762,16 @@
       <c r="I15" s="50"/>
       <c r="J15" s="51"/>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B16" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="F16" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="H16" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="I16" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="J16" s="45" t="s">
-        <v>552</v>
-      </c>
+    <row r="16" spans="1:10" ht="15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
     </row>
     <row r="17" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="61" t="s">
@@ -5946,7 +5799,7 @@
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
     </row>
-    <row r="19" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B19" s="48" t="s">
         <v>86</v>
       </c>
@@ -5961,36 +5814,18 @@
       <c r="I19" s="50"/>
       <c r="J19" s="51"/>
     </row>
-    <row r="20" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B20" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="G20" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="H20" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="I20" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="J20" s="45" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+    </row>
+    <row r="21" spans="2:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B21" s="61" t="s">
         <v>501</v>
       </c>
@@ -6003,34 +5838,16 @@
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
     </row>
-    <row r="22" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B22" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="G22" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="H22" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="I22" s="45" t="s">
-        <v>552</v>
-      </c>
-      <c r="J22" s="45" t="s">
-        <v>552</v>
-      </c>
+    <row r="22" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="61" t="s">
@@ -6061,11 +5878,11 @@
       <c r="J24" s="44"/>
     </row>
     <row r="25" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="91" t="s">
         <v>551</v>
       </c>
       <c r="C25" s="81"/>
-      <c r="D25" s="93" t="s">
+      <c r="D25" s="94" t="s">
         <v>517</v>
       </c>
       <c r="E25" s="33" t="s">
@@ -6075,27 +5892,31 @@
       <c r="G25" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="H25" s="84"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="45"/>
+      <c r="H25" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="I25" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="J25" s="81"/>
     </row>
     <row r="26" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B26" s="91"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="82"/>
-      <c r="D26" s="94"/>
+      <c r="D26" s="95"/>
       <c r="E26" s="33" t="s">
         <v>516</v>
       </c>
       <c r="F26" s="45"/>
       <c r="G26" s="82"/>
       <c r="H26" s="85"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="45"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="82"/>
     </row>
     <row r="27" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B27" s="92"/>
+      <c r="B27" s="93"/>
       <c r="C27" s="83"/>
-      <c r="D27" s="95"/>
+      <c r="D27" s="96"/>
       <c r="E27" s="33" t="s">
         <v>518</v>
       </c>
@@ -6104,8 +5925,8 @@
       </c>
       <c r="G27" s="83"/>
       <c r="H27" s="86"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="45"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="83"/>
     </row>
     <row r="28" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B28" s="48" t="s">
@@ -6123,11 +5944,11 @@
       <c r="J28" s="44"/>
     </row>
     <row r="29" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="91" t="s">
         <v>127</v>
       </c>
       <c r="C29" s="81"/>
-      <c r="D29" s="90" t="s">
+      <c r="D29" s="91" t="s">
         <v>520</v>
       </c>
       <c r="E29" s="33" t="s">
@@ -6137,14 +5958,18 @@
       <c r="G29" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="H29" s="84"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="45"/>
+      <c r="H29" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="I29" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="J29" s="81"/>
     </row>
     <row r="30" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B30" s="91"/>
+      <c r="B30" s="92"/>
       <c r="C30" s="82"/>
-      <c r="D30" s="91"/>
+      <c r="D30" s="92"/>
       <c r="E30" s="33" t="s">
         <v>525</v>
       </c>
@@ -6153,13 +5978,13 @@
       </c>
       <c r="G30" s="82"/>
       <c r="H30" s="85"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="45"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="82"/>
     </row>
     <row r="31" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B31" s="91"/>
+      <c r="B31" s="92"/>
       <c r="C31" s="82"/>
-      <c r="D31" s="91"/>
+      <c r="D31" s="92"/>
       <c r="E31" s="33" t="s">
         <v>526</v>
       </c>
@@ -6168,13 +5993,13 @@
       </c>
       <c r="G31" s="82"/>
       <c r="H31" s="85"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="45"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="82"/>
     </row>
     <row r="32" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B32" s="92"/>
+      <c r="B32" s="93"/>
       <c r="C32" s="83"/>
-      <c r="D32" s="92"/>
+      <c r="D32" s="93"/>
       <c r="E32" s="45" t="s">
         <v>527</v>
       </c>
@@ -6183,15 +6008,15 @@
       </c>
       <c r="G32" s="83"/>
       <c r="H32" s="86"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="45"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="83"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="91" t="s">
         <v>266</v>
       </c>
       <c r="C33" s="81"/>
-      <c r="D33" s="90" t="s">
+      <c r="D33" s="91" t="s">
         <v>522</v>
       </c>
       <c r="E33" s="33" t="s">
@@ -6201,14 +6026,18 @@
       <c r="G33" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="H33" s="84"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="45"/>
+      <c r="H33" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="I33" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="J33" s="81"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B34" s="91"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="82"/>
-      <c r="D34" s="91"/>
+      <c r="D34" s="92"/>
       <c r="E34" s="33" t="s">
         <v>525</v>
       </c>
@@ -6217,13 +6046,13 @@
       </c>
       <c r="G34" s="82"/>
       <c r="H34" s="85"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="45"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="82"/>
     </row>
     <row r="35" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B35" s="91"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="82"/>
-      <c r="D35" s="91"/>
+      <c r="D35" s="92"/>
       <c r="E35" s="33" t="s">
         <v>526</v>
       </c>
@@ -6232,13 +6061,13 @@
       </c>
       <c r="G35" s="82"/>
       <c r="H35" s="85"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="45"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="82"/>
     </row>
     <row r="36" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B36" s="92"/>
+      <c r="B36" s="93"/>
       <c r="C36" s="83"/>
-      <c r="D36" s="92"/>
+      <c r="D36" s="93"/>
       <c r="E36" s="45" t="s">
         <v>527</v>
       </c>
@@ -6247,8 +6076,8 @@
       </c>
       <c r="G36" s="83"/>
       <c r="H36" s="86"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="45"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="83"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="61" t="s">
@@ -6283,7 +6112,7 @@
         <v>131</v>
       </c>
       <c r="C39" s="81"/>
-      <c r="D39" s="93" t="s">
+      <c r="D39" s="94" t="s">
         <v>536</v>
       </c>
       <c r="E39" s="64" t="s">
@@ -6293,27 +6122,31 @@
       <c r="G39" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="H39" s="84"/>
-      <c r="I39" s="87"/>
+      <c r="H39" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="I39" s="97" t="s">
+        <v>204</v>
+      </c>
       <c r="J39" s="45"/>
     </row>
     <row r="40" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B40" s="82"/>
       <c r="C40" s="82"/>
-      <c r="D40" s="94"/>
+      <c r="D40" s="95"/>
       <c r="E40" s="64" t="s">
         <v>538</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="82"/>
       <c r="H40" s="85"/>
-      <c r="I40" s="88"/>
+      <c r="I40" s="98"/>
       <c r="J40" s="45"/>
     </row>
     <row r="41" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B41" s="82"/>
       <c r="C41" s="82"/>
-      <c r="D41" s="94"/>
+      <c r="D41" s="95"/>
       <c r="E41" s="71" t="s">
         <v>539</v>
       </c>
@@ -6322,13 +6155,13 @@
       </c>
       <c r="G41" s="82"/>
       <c r="H41" s="85"/>
-      <c r="I41" s="88"/>
+      <c r="I41" s="98"/>
       <c r="J41" s="45"/>
     </row>
     <row r="42" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B42" s="82"/>
       <c r="C42" s="82"/>
-      <c r="D42" s="94"/>
+      <c r="D42" s="95"/>
       <c r="E42" s="71" t="s">
         <v>541</v>
       </c>
@@ -6337,13 +6170,13 @@
       </c>
       <c r="G42" s="82"/>
       <c r="H42" s="85"/>
-      <c r="I42" s="88"/>
+      <c r="I42" s="98"/>
       <c r="J42" s="45"/>
     </row>
     <row r="43" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B43" s="82"/>
       <c r="C43" s="82"/>
-      <c r="D43" s="94"/>
+      <c r="D43" s="95"/>
       <c r="E43" s="71" t="s">
         <v>543</v>
       </c>
@@ -6352,26 +6185,26 @@
       </c>
       <c r="G43" s="82"/>
       <c r="H43" s="85"/>
-      <c r="I43" s="88"/>
+      <c r="I43" s="98"/>
       <c r="J43" s="45"/>
     </row>
     <row r="44" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B44" s="82"/>
       <c r="C44" s="82"/>
-      <c r="D44" s="94"/>
+      <c r="D44" s="95"/>
       <c r="E44" s="64" t="s">
         <v>545</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="82"/>
       <c r="H44" s="85"/>
-      <c r="I44" s="88"/>
+      <c r="I44" s="98"/>
       <c r="J44" s="45"/>
     </row>
     <row r="45" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B45" s="83"/>
       <c r="C45" s="83"/>
-      <c r="D45" s="95"/>
+      <c r="D45" s="96"/>
       <c r="E45" s="64" t="s">
         <v>547</v>
       </c>
@@ -6380,7 +6213,7 @@
       </c>
       <c r="G45" s="83"/>
       <c r="H45" s="86"/>
-      <c r="I45" s="89"/>
+      <c r="I45" s="99"/>
       <c r="J45" s="45"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
@@ -6428,13 +6261,36 @@
       <c r="G48" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="H48" s="40"/>
-      <c r="I48" s="33"/>
+      <c r="H48" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I48" s="33" t="s">
+        <v>16</v>
+      </c>
       <c r="J48" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="B10:J20"/>
-  <mergeCells count="32">
+  <mergeCells count="35">
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="I39:I45"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="H29:H32"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C29:C32"/>
     <mergeCell ref="G39:G45"/>
     <mergeCell ref="H39:H45"/>
     <mergeCell ref="A2:A8"/>
@@ -6451,68 +6307,52 @@
     <mergeCell ref="B39:B45"/>
     <mergeCell ref="C39:C45"/>
     <mergeCell ref="D39:D45"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="I39:I45"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="H29:H32"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="C29:C32"/>
   </mergeCells>
   <conditionalFormatting sqref="H48">
-    <cfRule type="containsText" dxfId="79" priority="510" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="63" priority="510" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="511" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="62" priority="511" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="512" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="61" priority="512" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="containsText" dxfId="76" priority="509" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="60" priority="509" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25 H29:H31 H33">
-    <cfRule type="containsText" dxfId="67" priority="250" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="59" priority="250" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="251" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="58" priority="251" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="252" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="57" priority="252" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25 H29:H31 H33">
-    <cfRule type="containsText" dxfId="64" priority="249" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="56" priority="249" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="63" priority="230" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="55" priority="230" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="231" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="54" priority="231" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",H24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="232" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="53" priority="232" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="60" priority="229" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="52" priority="229" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6592,13 +6432,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="97"/>
+      <c r="C2" s="88"/>
       <c r="D2" s="54">
         <f>COUNTIF(I13:I154,"&gt;a0")</f>
         <v>96</v>
@@ -6608,11 +6448,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97" t="s">
+      <c r="A3" s="87"/>
+      <c r="B3" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="97"/>
+      <c r="C3" s="88"/>
       <c r="D3" s="54">
         <f>SUM(D5:D6)</f>
         <v>94</v>
@@ -6622,55 +6462,55 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97" t="s">
+      <c r="A4" s="87"/>
+      <c r="B4" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="97"/>
+      <c r="C4" s="88"/>
       <c r="D4" s="54">
         <f>D2-D3</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="98" t="s">
+      <c r="A5" s="87"/>
+      <c r="B5" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="98"/>
+      <c r="C5" s="89"/>
       <c r="D5" s="54">
         <f>COUNTIF(H12:H154,"Passed")</f>
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="96"/>
-      <c r="B6" s="98" t="s">
+      <c r="A6" s="87"/>
+      <c r="B6" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="98"/>
+      <c r="C6" s="89"/>
       <c r="D6" s="54">
         <f>COUNTIF(H12:H154,"Failed")</f>
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="96"/>
-      <c r="B7" s="98" t="s">
+      <c r="A7" s="87"/>
+      <c r="B7" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="98"/>
+      <c r="C7" s="89"/>
       <c r="D7" s="54">
         <f>COUNTIF(H12:H154,"Block")</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="96"/>
-      <c r="B8" s="99" t="s">
+      <c r="A8" s="87"/>
+      <c r="B8" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="99"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="55">
         <f>1-(D4/D2)</f>
         <v>0.97916666666666663</v>
@@ -10101,8 +9941,8 @@
   </sheetPr>
   <dimension ref="L3:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/6. Test/Linh tinh/sprint 3/AS_TE_TestCase_Sprint3.xlsx
+++ b/6. Test/Linh tinh/sprint 3/AS_TE_TestCase_Sprint3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="8280" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="8280" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Revision history" sheetId="3" r:id="rId1"/>
@@ -2754,17 +2754,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2784,14 +2781,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3565,7 +3565,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5568,8 +5568,8 @@
   </sheetPr>
   <dimension ref="A2:J48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -5586,81 +5586,81 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="88"/>
+      <c r="C2" s="97"/>
       <c r="D2" s="54">
-        <f>COUNTIF(I11:I36,"&gt;a0")</f>
-        <v>3</v>
+        <f>COUNTIF(I11:I48,"&gt;a0")</f>
+        <v>5</v>
       </c>
       <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
-      <c r="B3" s="88" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="88"/>
+      <c r="C3" s="97"/>
       <c r="D3" s="54">
         <f>SUM(D5:D6)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" s="63"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="96"/>
+      <c r="B4" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="88"/>
+      <c r="C4" s="97"/>
       <c r="D4" s="54">
         <f>D2-D3</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="89" t="s">
+      <c r="A5" s="96"/>
+      <c r="B5" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="89"/>
+      <c r="C5" s="98"/>
       <c r="D5" s="54">
-        <f>COUNTIF(H11:H36,"Passed")</f>
-        <v>3</v>
+        <f>COUNTIF(H11:H48,"Passed")</f>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="89" t="s">
+      <c r="A6" s="96"/>
+      <c r="B6" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="89"/>
+      <c r="C6" s="98"/>
       <c r="D6" s="54">
         <f>COUNTIF(H11:H36,"Failed")</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="87"/>
-      <c r="B7" s="89" t="s">
+      <c r="A7" s="96"/>
+      <c r="B7" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="89"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="54">
         <f>COUNTIF(H11:H20,"Block")</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="87"/>
-      <c r="B8" s="90" t="s">
+      <c r="A8" s="96"/>
+      <c r="B8" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="90"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="55">
         <f>1-(D4/D2)</f>
         <v>1</v>
@@ -5862,7 +5862,7 @@
       <c r="I23" s="61"/>
       <c r="J23" s="61"/>
     </row>
-    <row r="24" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="48" t="s">
         <v>502</v>
       </c>
@@ -5877,12 +5877,12 @@
       <c r="I24" s="58"/>
       <c r="J24" s="44"/>
     </row>
-    <row r="25" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B25" s="91" t="s">
+    <row r="25" spans="2:10" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B25" s="90" t="s">
         <v>551</v>
       </c>
       <c r="C25" s="81"/>
-      <c r="D25" s="94" t="s">
+      <c r="D25" s="93" t="s">
         <v>517</v>
       </c>
       <c r="E25" s="33" t="s">
@@ -5895,28 +5895,28 @@
       <c r="H25" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="I25" s="97" t="s">
+      <c r="I25" s="87" t="s">
         <v>104</v>
       </c>
       <c r="J25" s="81"/>
     </row>
-    <row r="26" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B26" s="92"/>
+    <row r="26" spans="2:10" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B26" s="91"/>
       <c r="C26" s="82"/>
-      <c r="D26" s="95"/>
+      <c r="D26" s="94"/>
       <c r="E26" s="33" t="s">
         <v>516</v>
       </c>
       <c r="F26" s="45"/>
       <c r="G26" s="82"/>
       <c r="H26" s="85"/>
-      <c r="I26" s="98"/>
+      <c r="I26" s="88"/>
       <c r="J26" s="82"/>
     </row>
-    <row r="27" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B27" s="93"/>
+    <row r="27" spans="2:10" ht="60" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B27" s="92"/>
       <c r="C27" s="83"/>
-      <c r="D27" s="96"/>
+      <c r="D27" s="95"/>
       <c r="E27" s="33" t="s">
         <v>518</v>
       </c>
@@ -5925,10 +5925,10 @@
       </c>
       <c r="G27" s="83"/>
       <c r="H27" s="86"/>
-      <c r="I27" s="99"/>
+      <c r="I27" s="89"/>
       <c r="J27" s="83"/>
     </row>
-    <row r="28" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B28" s="48" t="s">
         <v>121</v>
       </c>
@@ -5943,12 +5943,12 @@
       <c r="I28" s="58"/>
       <c r="J28" s="44"/>
     </row>
-    <row r="29" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B29" s="91" t="s">
+    <row r="29" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B29" s="90" t="s">
         <v>127</v>
       </c>
       <c r="C29" s="81"/>
-      <c r="D29" s="91" t="s">
+      <c r="D29" s="90" t="s">
         <v>520</v>
       </c>
       <c r="E29" s="33" t="s">
@@ -5961,15 +5961,15 @@
       <c r="H29" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="I29" s="97" t="s">
+      <c r="I29" s="87" t="s">
         <v>104</v>
       </c>
       <c r="J29" s="81"/>
     </row>
-    <row r="30" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B30" s="92"/>
+    <row r="30" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B30" s="91"/>
       <c r="C30" s="82"/>
-      <c r="D30" s="92"/>
+      <c r="D30" s="91"/>
       <c r="E30" s="33" t="s">
         <v>525</v>
       </c>
@@ -5978,13 +5978,13 @@
       </c>
       <c r="G30" s="82"/>
       <c r="H30" s="85"/>
-      <c r="I30" s="98"/>
+      <c r="I30" s="88"/>
       <c r="J30" s="82"/>
     </row>
-    <row r="31" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B31" s="92"/>
+    <row r="31" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B31" s="91"/>
       <c r="C31" s="82"/>
-      <c r="D31" s="92"/>
+      <c r="D31" s="91"/>
       <c r="E31" s="33" t="s">
         <v>526</v>
       </c>
@@ -5993,13 +5993,13 @@
       </c>
       <c r="G31" s="82"/>
       <c r="H31" s="85"/>
-      <c r="I31" s="98"/>
+      <c r="I31" s="88"/>
       <c r="J31" s="82"/>
     </row>
-    <row r="32" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B32" s="93"/>
+    <row r="32" spans="2:10" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B32" s="92"/>
       <c r="C32" s="83"/>
-      <c r="D32" s="93"/>
+      <c r="D32" s="92"/>
       <c r="E32" s="45" t="s">
         <v>527</v>
       </c>
@@ -6008,15 +6008,15 @@
       </c>
       <c r="G32" s="83"/>
       <c r="H32" s="86"/>
-      <c r="I32" s="99"/>
+      <c r="I32" s="89"/>
       <c r="J32" s="83"/>
     </row>
-    <row r="33" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B33" s="91" t="s">
+    <row r="33" spans="2:10" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B33" s="90" t="s">
         <v>266</v>
       </c>
       <c r="C33" s="81"/>
-      <c r="D33" s="91" t="s">
+      <c r="D33" s="90" t="s">
         <v>522</v>
       </c>
       <c r="E33" s="33" t="s">
@@ -6029,15 +6029,15 @@
       <c r="H33" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="I33" s="97" t="s">
+      <c r="I33" s="87" t="s">
         <v>104</v>
       </c>
       <c r="J33" s="81"/>
     </row>
-    <row r="34" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B34" s="92"/>
+    <row r="34" spans="2:10" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B34" s="91"/>
       <c r="C34" s="82"/>
-      <c r="D34" s="92"/>
+      <c r="D34" s="91"/>
       <c r="E34" s="33" t="s">
         <v>525</v>
       </c>
@@ -6046,13 +6046,13 @@
       </c>
       <c r="G34" s="82"/>
       <c r="H34" s="85"/>
-      <c r="I34" s="98"/>
+      <c r="I34" s="88"/>
       <c r="J34" s="82"/>
     </row>
-    <row r="35" spans="2:10" ht="15.75" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B35" s="92"/>
+    <row r="35" spans="2:10" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B35" s="91"/>
       <c r="C35" s="82"/>
-      <c r="D35" s="92"/>
+      <c r="D35" s="91"/>
       <c r="E35" s="33" t="s">
         <v>526</v>
       </c>
@@ -6061,13 +6061,13 @@
       </c>
       <c r="G35" s="82"/>
       <c r="H35" s="85"/>
-      <c r="I35" s="98"/>
+      <c r="I35" s="88"/>
       <c r="J35" s="82"/>
     </row>
-    <row r="36" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B36" s="93"/>
+    <row r="36" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B36" s="92"/>
       <c r="C36" s="83"/>
-      <c r="D36" s="93"/>
+      <c r="D36" s="92"/>
       <c r="E36" s="45" t="s">
         <v>527</v>
       </c>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="G36" s="83"/>
       <c r="H36" s="86"/>
-      <c r="I36" s="99"/>
+      <c r="I36" s="89"/>
       <c r="J36" s="83"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
@@ -6092,7 +6092,7 @@
       <c r="I37" s="53"/>
       <c r="J37" s="53"/>
     </row>
-    <row r="38" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B38" s="48" t="s">
         <v>129</v>
       </c>
@@ -6107,12 +6107,12 @@
       <c r="I38" s="50"/>
       <c r="J38" s="51"/>
     </row>
-    <row r="39" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B39" s="81" t="s">
         <v>131</v>
       </c>
       <c r="C39" s="81"/>
-      <c r="D39" s="94" t="s">
+      <c r="D39" s="93" t="s">
         <v>536</v>
       </c>
       <c r="E39" s="64" t="s">
@@ -6125,28 +6125,28 @@
       <c r="H39" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="97" t="s">
+      <c r="I39" s="87" t="s">
         <v>204</v>
       </c>
       <c r="J39" s="45"/>
     </row>
-    <row r="40" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B40" s="82"/>
       <c r="C40" s="82"/>
-      <c r="D40" s="95"/>
+      <c r="D40" s="94"/>
       <c r="E40" s="64" t="s">
         <v>538</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="82"/>
       <c r="H40" s="85"/>
-      <c r="I40" s="98"/>
+      <c r="I40" s="88"/>
       <c r="J40" s="45"/>
     </row>
-    <row r="41" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B41" s="82"/>
       <c r="C41" s="82"/>
-      <c r="D41" s="95"/>
+      <c r="D41" s="94"/>
       <c r="E41" s="71" t="s">
         <v>539</v>
       </c>
@@ -6155,13 +6155,13 @@
       </c>
       <c r="G41" s="82"/>
       <c r="H41" s="85"/>
-      <c r="I41" s="98"/>
+      <c r="I41" s="88"/>
       <c r="J41" s="45"/>
     </row>
-    <row r="42" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B42" s="82"/>
       <c r="C42" s="82"/>
-      <c r="D42" s="95"/>
+      <c r="D42" s="94"/>
       <c r="E42" s="71" t="s">
         <v>541</v>
       </c>
@@ -6170,13 +6170,13 @@
       </c>
       <c r="G42" s="82"/>
       <c r="H42" s="85"/>
-      <c r="I42" s="98"/>
+      <c r="I42" s="88"/>
       <c r="J42" s="45"/>
     </row>
-    <row r="43" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B43" s="82"/>
       <c r="C43" s="82"/>
-      <c r="D43" s="95"/>
+      <c r="D43" s="94"/>
       <c r="E43" s="71" t="s">
         <v>543</v>
       </c>
@@ -6185,26 +6185,26 @@
       </c>
       <c r="G43" s="82"/>
       <c r="H43" s="85"/>
-      <c r="I43" s="98"/>
+      <c r="I43" s="88"/>
       <c r="J43" s="45"/>
     </row>
-    <row r="44" spans="2:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B44" s="82"/>
       <c r="C44" s="82"/>
-      <c r="D44" s="95"/>
+      <c r="D44" s="94"/>
       <c r="E44" s="64" t="s">
         <v>545</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="82"/>
       <c r="H44" s="85"/>
-      <c r="I44" s="98"/>
+      <c r="I44" s="88"/>
       <c r="J44" s="45"/>
     </row>
-    <row r="45" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B45" s="83"/>
       <c r="C45" s="83"/>
-      <c r="D45" s="96"/>
+      <c r="D45" s="95"/>
       <c r="E45" s="64" t="s">
         <v>547</v>
       </c>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="G45" s="83"/>
       <c r="H45" s="86"/>
-      <c r="I45" s="99"/>
+      <c r="I45" s="89"/>
       <c r="J45" s="45"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
@@ -6229,7 +6229,7 @@
       <c r="I46" s="61"/>
       <c r="J46" s="61"/>
     </row>
-    <row r="47" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B47" s="48" t="s">
         <v>137</v>
       </c>
@@ -6244,7 +6244,7 @@
       <c r="I47" s="50"/>
       <c r="J47" s="51"/>
     </row>
-    <row r="48" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B48" s="45" t="s">
         <v>142</v>
       </c>
@@ -6272,12 +6272,19 @@
   </sheetData>
   <autoFilter ref="B10:J20"/>
   <mergeCells count="35">
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="C39:C45"/>
+    <mergeCell ref="D39:D45"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="I39:I45"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="C25:C27"/>
@@ -6293,20 +6300,13 @@
     <mergeCell ref="C29:C32"/>
     <mergeCell ref="G39:G45"/>
     <mergeCell ref="H39:H45"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="C39:C45"/>
-    <mergeCell ref="D39:D45"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="I33:I36"/>
   </mergeCells>
   <conditionalFormatting sqref="H48">
     <cfRule type="containsText" dxfId="63" priority="510" operator="containsText" text="Not Applicable">
@@ -6432,13 +6432,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="88"/>
+      <c r="C2" s="97"/>
       <c r="D2" s="54">
         <f>COUNTIF(I13:I154,"&gt;a0")</f>
         <v>96</v>
@@ -6448,11 +6448,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
-      <c r="B3" s="88" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="88"/>
+      <c r="C3" s="97"/>
       <c r="D3" s="54">
         <f>SUM(D5:D6)</f>
         <v>94</v>
@@ -6462,55 +6462,55 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="96"/>
+      <c r="B4" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="88"/>
+      <c r="C4" s="97"/>
       <c r="D4" s="54">
         <f>D2-D3</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="89" t="s">
+      <c r="A5" s="96"/>
+      <c r="B5" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="89"/>
+      <c r="C5" s="98"/>
       <c r="D5" s="54">
         <f>COUNTIF(H12:H154,"Passed")</f>
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="89" t="s">
+      <c r="A6" s="96"/>
+      <c r="B6" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="89"/>
+      <c r="C6" s="98"/>
       <c r="D6" s="54">
         <f>COUNTIF(H12:H154,"Failed")</f>
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="87"/>
-      <c r="B7" s="89" t="s">
+      <c r="A7" s="96"/>
+      <c r="B7" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="89"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="54">
         <f>COUNTIF(H12:H154,"Block")</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="87"/>
-      <c r="B8" s="90" t="s">
+      <c r="A8" s="96"/>
+      <c r="B8" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="90"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="55">
         <f>1-(D4/D2)</f>
         <v>0.97916666666666663</v>
@@ -9941,8 +9941,8 @@
   </sheetPr>
   <dimension ref="L3:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/6. Test/Linh tinh/sprint 3/AS_TE_TestCase_Sprint3.xlsx
+++ b/6. Test/Linh tinh/sprint 3/AS_TE_TestCase_Sprint3.xlsx
@@ -2061,19 +2061,7 @@
     <t>clone02</t>
   </si>
   <si>
-    <t>Số lượng Testcase: 53</t>
-  </si>
-  <si>
-    <t>Số lượng testcase passed: 50 (chiếm 94%)</t>
-  </si>
-  <si>
-    <t>Số lượng testcase failed: 3 (chiếm 6%)</t>
-  </si>
-  <si>
     <t>Số lượng testcase block: 0 (chiếm 0%)</t>
-  </si>
-  <si>
-    <t>Số lượng testcase passed đạt mức 94% phù hợp với chỉ tiêu đặt ra ở mức GOOD (&gt;80%).</t>
   </si>
   <si>
     <t>Tên đăng nhập người dùng chỉ được phép sử dụng những ký tự [a-z] / [A-Z] / [0-9]
@@ -2135,6 +2123,18 @@
   </si>
   <si>
     <t>TC.05.1</t>
+  </si>
+  <si>
+    <t>Tổng Testcase: 5</t>
+  </si>
+  <si>
+    <t>Số lượng testcase passed: 5 (chiếm 100%)</t>
+  </si>
+  <si>
+    <t>Số lượng testcase passed đạt mức 100% phù hợp với chỉ tiêu đặt ra ở mức GOOD (&gt;80%).</t>
+  </si>
+  <si>
+    <t>Số lượng testcase failed: 0</t>
   </si>
 </sst>
 </file>
@@ -2745,24 +2745,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2792,6 +2774,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5451,7 +5451,7 @@
         <v>86</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C12" s="76"/>
       <c r="D12" s="74"/>
@@ -5520,7 +5520,7 @@
         <v>181</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D19" s="42"/>
     </row>
@@ -5540,7 +5540,7 @@
         <v>153</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D21" s="42"/>
     </row>
@@ -5586,13 +5586,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="97"/>
+      <c r="C2" s="91"/>
       <c r="D2" s="54">
         <f>COUNTIF(I11:I48,"&gt;a0")</f>
         <v>5</v>
@@ -5600,11 +5600,11 @@
       <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97" t="s">
+      <c r="A3" s="90"/>
+      <c r="B3" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="97"/>
+      <c r="C3" s="91"/>
       <c r="D3" s="54">
         <f>SUM(D5:D6)</f>
         <v>5</v>
@@ -5612,55 +5612,55 @@
       <c r="E3" s="63"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97" t="s">
+      <c r="A4" s="90"/>
+      <c r="B4" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="97"/>
+      <c r="C4" s="91"/>
       <c r="D4" s="54">
         <f>D2-D3</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="98" t="s">
+      <c r="A5" s="90"/>
+      <c r="B5" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="98"/>
+      <c r="C5" s="92"/>
       <c r="D5" s="54">
         <f>COUNTIF(H11:H48,"Passed")</f>
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="96"/>
-      <c r="B6" s="98" t="s">
+      <c r="A6" s="90"/>
+      <c r="B6" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="98"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="54">
         <f>COUNTIF(H11:H36,"Failed")</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="96"/>
-      <c r="B7" s="98" t="s">
+      <c r="A7" s="90"/>
+      <c r="B7" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="98"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="54">
         <f>COUNTIF(H11:H20,"Block")</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="96"/>
-      <c r="B8" s="99" t="s">
+      <c r="A8" s="90"/>
+      <c r="B8" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="99"/>
+      <c r="C8" s="93"/>
       <c r="D8" s="55">
         <f>1-(D4/D2)</f>
         <v>1</v>
@@ -5804,7 +5804,7 @@
         <v>86</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D19" s="50"/>
       <c r="E19" s="50"/>
@@ -5878,11 +5878,11 @@
       <c r="J24" s="44"/>
     </row>
     <row r="25" spans="2:10" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B25" s="90" t="s">
-        <v>551</v>
+      <c r="B25" s="84" t="s">
+        <v>547</v>
       </c>
       <c r="C25" s="81"/>
-      <c r="D25" s="93" t="s">
+      <c r="D25" s="87" t="s">
         <v>517</v>
       </c>
       <c r="E25" s="33" t="s">
@@ -5892,31 +5892,31 @@
       <c r="G25" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="H25" s="84" t="s">
+      <c r="H25" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="I25" s="87" t="s">
+      <c r="I25" s="94" t="s">
         <v>104</v>
       </c>
       <c r="J25" s="81"/>
     </row>
     <row r="26" spans="2:10" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B26" s="91"/>
+      <c r="B26" s="85"/>
       <c r="C26" s="82"/>
-      <c r="D26" s="94"/>
+      <c r="D26" s="88"/>
       <c r="E26" s="33" t="s">
         <v>516</v>
       </c>
       <c r="F26" s="45"/>
       <c r="G26" s="82"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="88"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="95"/>
       <c r="J26" s="82"/>
     </row>
     <row r="27" spans="2:10" ht="60" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B27" s="92"/>
+      <c r="B27" s="86"/>
       <c r="C27" s="83"/>
-      <c r="D27" s="95"/>
+      <c r="D27" s="89"/>
       <c r="E27" s="33" t="s">
         <v>518</v>
       </c>
@@ -5924,8 +5924,8 @@
         <v>519</v>
       </c>
       <c r="G27" s="83"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="89"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="96"/>
       <c r="J27" s="83"/>
     </row>
     <row r="28" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5944,11 +5944,11 @@
       <c r="J28" s="44"/>
     </row>
     <row r="29" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="84" t="s">
         <v>127</v>
       </c>
       <c r="C29" s="81"/>
-      <c r="D29" s="90" t="s">
+      <c r="D29" s="84" t="s">
         <v>520</v>
       </c>
       <c r="E29" s="33" t="s">
@@ -5958,18 +5958,18 @@
       <c r="G29" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="H29" s="84" t="s">
+      <c r="H29" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="I29" s="87" t="s">
+      <c r="I29" s="94" t="s">
         <v>104</v>
       </c>
       <c r="J29" s="81"/>
     </row>
     <row r="30" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B30" s="91"/>
+      <c r="B30" s="85"/>
       <c r="C30" s="82"/>
-      <c r="D30" s="91"/>
+      <c r="D30" s="85"/>
       <c r="E30" s="33" t="s">
         <v>525</v>
       </c>
@@ -5977,14 +5977,14 @@
         <v>528</v>
       </c>
       <c r="G30" s="82"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="88"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="95"/>
       <c r="J30" s="82"/>
     </row>
     <row r="31" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B31" s="91"/>
+      <c r="B31" s="85"/>
       <c r="C31" s="82"/>
-      <c r="D31" s="91"/>
+      <c r="D31" s="85"/>
       <c r="E31" s="33" t="s">
         <v>526</v>
       </c>
@@ -5992,14 +5992,14 @@
         <v>528</v>
       </c>
       <c r="G31" s="82"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="88"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="95"/>
       <c r="J31" s="82"/>
     </row>
     <row r="32" spans="2:10" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B32" s="92"/>
+      <c r="B32" s="86"/>
       <c r="C32" s="83"/>
-      <c r="D32" s="92"/>
+      <c r="D32" s="86"/>
       <c r="E32" s="45" t="s">
         <v>527</v>
       </c>
@@ -6007,16 +6007,16 @@
         <v>521</v>
       </c>
       <c r="G32" s="83"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="89"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="96"/>
       <c r="J32" s="83"/>
     </row>
     <row r="33" spans="2:10" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="84" t="s">
         <v>266</v>
       </c>
       <c r="C33" s="81"/>
-      <c r="D33" s="90" t="s">
+      <c r="D33" s="84" t="s">
         <v>522</v>
       </c>
       <c r="E33" s="33" t="s">
@@ -6026,18 +6026,18 @@
       <c r="G33" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="H33" s="84" t="s">
+      <c r="H33" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="I33" s="87" t="s">
+      <c r="I33" s="94" t="s">
         <v>104</v>
       </c>
       <c r="J33" s="81"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B34" s="91"/>
+      <c r="B34" s="85"/>
       <c r="C34" s="82"/>
-      <c r="D34" s="91"/>
+      <c r="D34" s="85"/>
       <c r="E34" s="33" t="s">
         <v>525</v>
       </c>
@@ -6045,14 +6045,14 @@
         <v>529</v>
       </c>
       <c r="G34" s="82"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="88"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="95"/>
       <c r="J34" s="82"/>
     </row>
     <row r="35" spans="2:10" ht="15.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B35" s="91"/>
+      <c r="B35" s="85"/>
       <c r="C35" s="82"/>
-      <c r="D35" s="91"/>
+      <c r="D35" s="85"/>
       <c r="E35" s="33" t="s">
         <v>526</v>
       </c>
@@ -6060,14 +6060,14 @@
         <v>123456</v>
       </c>
       <c r="G35" s="82"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="88"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="95"/>
       <c r="J35" s="82"/>
     </row>
     <row r="36" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B36" s="92"/>
+      <c r="B36" s="86"/>
       <c r="C36" s="83"/>
-      <c r="D36" s="92"/>
+      <c r="D36" s="86"/>
       <c r="E36" s="45" t="s">
         <v>527</v>
       </c>
@@ -6075,8 +6075,8 @@
         <v>523</v>
       </c>
       <c r="G36" s="83"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="89"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="96"/>
       <c r="J36" s="83"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
@@ -6112,20 +6112,20 @@
         <v>131</v>
       </c>
       <c r="C39" s="81"/>
-      <c r="D39" s="93" t="s">
-        <v>536</v>
+      <c r="D39" s="87" t="s">
+        <v>532</v>
       </c>
       <c r="E39" s="64" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="H39" s="84" t="s">
+      <c r="H39" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="87" t="s">
+      <c r="I39" s="94" t="s">
         <v>204</v>
       </c>
       <c r="J39" s="45"/>
@@ -6133,87 +6133,87 @@
     <row r="40" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B40" s="82"/>
       <c r="C40" s="82"/>
-      <c r="D40" s="94"/>
+      <c r="D40" s="88"/>
       <c r="E40" s="64" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="82"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="88"/>
+      <c r="H40" s="98"/>
+      <c r="I40" s="95"/>
       <c r="J40" s="45"/>
     </row>
     <row r="41" spans="2:10" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B41" s="82"/>
       <c r="C41" s="82"/>
-      <c r="D41" s="94"/>
+      <c r="D41" s="88"/>
       <c r="E41" s="71" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G41" s="82"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="88"/>
+      <c r="H41" s="98"/>
+      <c r="I41" s="95"/>
       <c r="J41" s="45"/>
     </row>
     <row r="42" spans="2:10" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B42" s="82"/>
       <c r="C42" s="82"/>
-      <c r="D42" s="94"/>
+      <c r="D42" s="88"/>
       <c r="E42" s="71" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F42" s="33" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G42" s="82"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="88"/>
+      <c r="H42" s="98"/>
+      <c r="I42" s="95"/>
       <c r="J42" s="45"/>
     </row>
     <row r="43" spans="2:10" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B43" s="82"/>
       <c r="C43" s="82"/>
-      <c r="D43" s="94"/>
+      <c r="D43" s="88"/>
       <c r="E43" s="71" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G43" s="82"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="88"/>
+      <c r="H43" s="98"/>
+      <c r="I43" s="95"/>
       <c r="J43" s="45"/>
     </row>
     <row r="44" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B44" s="82"/>
       <c r="C44" s="82"/>
-      <c r="D44" s="94"/>
+      <c r="D44" s="88"/>
       <c r="E44" s="64" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="82"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="88"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="95"/>
       <c r="J44" s="45"/>
     </row>
     <row r="45" spans="2:10" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B45" s="83"/>
       <c r="C45" s="83"/>
-      <c r="D45" s="95"/>
+      <c r="D45" s="89"/>
       <c r="E45" s="64" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G45" s="83"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="89"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="96"/>
       <c r="J45" s="45"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
@@ -6253,7 +6253,7 @@
         <v>159</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F48" s="33" t="s">
         <v>157</v>
@@ -6272,19 +6272,12 @@
   </sheetData>
   <autoFilter ref="B10:J20"/>
   <mergeCells count="35">
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="C39:C45"/>
-    <mergeCell ref="D39:D45"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="I33:I36"/>
     <mergeCell ref="I39:I45"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="C25:C27"/>
@@ -6301,12 +6294,19 @@
     <mergeCell ref="G39:G45"/>
     <mergeCell ref="H39:H45"/>
     <mergeCell ref="B33:B36"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="C39:C45"/>
+    <mergeCell ref="D39:D45"/>
   </mergeCells>
   <conditionalFormatting sqref="H48">
     <cfRule type="containsText" dxfId="63" priority="510" operator="containsText" text="Not Applicable">
@@ -6432,13 +6432,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="97"/>
+      <c r="C2" s="91"/>
       <c r="D2" s="54">
         <f>COUNTIF(I13:I154,"&gt;a0")</f>
         <v>96</v>
@@ -6448,11 +6448,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97" t="s">
+      <c r="A3" s="90"/>
+      <c r="B3" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="97"/>
+      <c r="C3" s="91"/>
       <c r="D3" s="54">
         <f>SUM(D5:D6)</f>
         <v>94</v>
@@ -6462,55 +6462,55 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97" t="s">
+      <c r="A4" s="90"/>
+      <c r="B4" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="97"/>
+      <c r="C4" s="91"/>
       <c r="D4" s="54">
         <f>D2-D3</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="98" t="s">
+      <c r="A5" s="90"/>
+      <c r="B5" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="98"/>
+      <c r="C5" s="92"/>
       <c r="D5" s="54">
         <f>COUNTIF(H12:H154,"Passed")</f>
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="96"/>
-      <c r="B6" s="98" t="s">
+      <c r="A6" s="90"/>
+      <c r="B6" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="98"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="54">
         <f>COUNTIF(H12:H154,"Failed")</f>
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="96"/>
-      <c r="B7" s="98" t="s">
+      <c r="A7" s="90"/>
+      <c r="B7" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="98"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="54">
         <f>COUNTIF(H12:H154,"Block")</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="96"/>
-      <c r="B8" s="99" t="s">
+      <c r="A8" s="90"/>
+      <c r="B8" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="99"/>
+      <c r="C8" s="93"/>
       <c r="D8" s="55">
         <f>1-(D4/D2)</f>
         <v>0.97916666666666663</v>
@@ -9941,8 +9941,8 @@
   </sheetPr>
   <dimension ref="L3:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9952,22 +9952,22 @@
   <sheetData>
     <row r="3" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L3" s="27" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L4" s="27" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L5" s="27" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L6" s="27" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -9975,7 +9975,7 @@
     </row>
     <row r="8" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L8" s="70" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
